--- a/Colloscope1.xlsx
+++ b/Colloscope1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maelb\Desktop\APP COLLO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EAA601F-21A2-4CE4-9CEE-4913D32E734F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{153EE264-83DA-44E0-B93A-366E59EB9617}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="25440" windowHeight="15270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28695" yWindow="0" windowWidth="12810" windowHeight="15135" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="432">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="462">
   <si>
     <r>
       <rPr>
@@ -4356,6 +4356,96 @@
       </rPr>
       <t>P11 M9 A5 I2</t>
     </r>
+  </si>
+  <si>
+    <t>S1 (16/09)</t>
+  </si>
+  <si>
+    <t>S2 (23/09)</t>
+  </si>
+  <si>
+    <t>S3 (30/09)</t>
+  </si>
+  <si>
+    <t>S4 (07/10)</t>
+  </si>
+  <si>
+    <t>S5 (14/10)</t>
+  </si>
+  <si>
+    <t>S6 (04/11)</t>
+  </si>
+  <si>
+    <t>S7 (11/11)</t>
+  </si>
+  <si>
+    <t>S8 (18/11)</t>
+  </si>
+  <si>
+    <t>S9 (25/11)</t>
+  </si>
+  <si>
+    <t>S10 (02/12)</t>
+  </si>
+  <si>
+    <t>S11 (09/12)</t>
+  </si>
+  <si>
+    <t>S12 (16/12)</t>
+  </si>
+  <si>
+    <t>S13 (06/01)</t>
+  </si>
+  <si>
+    <t>S14 (13/01)</t>
+  </si>
+  <si>
+    <t>S15 (20/01)</t>
+  </si>
+  <si>
+    <t>S16 (27/01)</t>
+  </si>
+  <si>
+    <t>S17 (03/02)</t>
+  </si>
+  <si>
+    <t>S18 (24/02)</t>
+  </si>
+  <si>
+    <t>S19 (03/03)</t>
+  </si>
+  <si>
+    <t>S20 (10/03)</t>
+  </si>
+  <si>
+    <t>S21 (17/03)</t>
+  </si>
+  <si>
+    <t>S22 (24/03)</t>
+  </si>
+  <si>
+    <t>S23 (31/03)</t>
+  </si>
+  <si>
+    <t>S24 (21/04)</t>
+  </si>
+  <si>
+    <t>S25 (28/04)</t>
+  </si>
+  <si>
+    <t>S26 (05/05)</t>
+  </si>
+  <si>
+    <t>S27 (12/05)</t>
+  </si>
+  <si>
+    <t>S28 (19/05)</t>
+  </si>
+  <si>
+    <t>S29 (02/06)</t>
+  </si>
+  <si>
+    <t>S30 (09/06)</t>
   </si>
 </sst>
 </file>
@@ -4398,7 +4488,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -4434,24 +4524,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -4462,9 +4539,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4771,10 +4845,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF51"/>
+  <dimension ref="A1:AE51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AA19" sqref="AA19"/>
+    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
+      <selection activeCell="AE8" sqref="AE8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4786,10 +4860,123 @@
     <col min="6" max="6" width="20.6640625" customWidth="1"/>
     <col min="7" max="8" width="20.5" customWidth="1"/>
     <col min="9" max="9" width="21.33203125" customWidth="1"/>
+    <col min="10" max="10" width="10.83203125" customWidth="1"/>
+    <col min="11" max="11" width="10.6640625" customWidth="1"/>
+    <col min="12" max="12" width="11.1640625" customWidth="1"/>
+    <col min="13" max="13" width="13.1640625" customWidth="1"/>
+    <col min="14" max="14" width="12.6640625" customWidth="1"/>
+    <col min="15" max="15" width="14.1640625" customWidth="1"/>
+    <col min="16" max="16" width="11.5" customWidth="1"/>
+    <col min="17" max="17" width="14.33203125" customWidth="1"/>
+    <col min="18" max="18" width="12.83203125" customWidth="1"/>
+    <col min="19" max="19" width="11.5" customWidth="1"/>
+    <col min="20" max="20" width="12.5" customWidth="1"/>
+    <col min="21" max="21" width="11.83203125" customWidth="1"/>
+    <col min="22" max="22" width="13.33203125" customWidth="1"/>
+    <col min="23" max="23" width="15.33203125" customWidth="1"/>
+    <col min="24" max="24" width="11.6640625" customWidth="1"/>
+    <col min="25" max="25" width="12.1640625" customWidth="1"/>
+    <col min="26" max="26" width="14.6640625" customWidth="1"/>
+    <col min="27" max="27" width="13.6640625" customWidth="1"/>
+    <col min="28" max="28" width="11.83203125" customWidth="1"/>
+    <col min="29" max="29" width="13.1640625" customWidth="1"/>
+    <col min="30" max="30" width="14.6640625" customWidth="1"/>
+    <col min="31" max="31" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>432</v>
+      </c>
+      <c r="C1" t="s">
+        <v>433</v>
+      </c>
+      <c r="D1" t="s">
+        <v>434</v>
+      </c>
+      <c r="E1" t="s">
+        <v>435</v>
+      </c>
+      <c r="F1" t="s">
+        <v>436</v>
+      </c>
+      <c r="G1" t="s">
+        <v>437</v>
+      </c>
+      <c r="H1" t="s">
+        <v>438</v>
+      </c>
+      <c r="I1" t="s">
+        <v>439</v>
+      </c>
+      <c r="J1" t="s">
+        <v>440</v>
+      </c>
+      <c r="K1" t="s">
+        <v>441</v>
+      </c>
+      <c r="L1" t="s">
+        <v>442</v>
+      </c>
+      <c r="M1" t="s">
+        <v>443</v>
+      </c>
+      <c r="N1" t="s">
+        <v>444</v>
+      </c>
+      <c r="O1" t="s">
+        <v>445</v>
+      </c>
+      <c r="P1" t="s">
+        <v>446</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>447</v>
+      </c>
+      <c r="R1" t="s">
+        <v>448</v>
+      </c>
+      <c r="S1" t="s">
+        <v>449</v>
+      </c>
+      <c r="T1" t="s">
+        <v>450</v>
+      </c>
+      <c r="U1" t="s">
+        <v>451</v>
+      </c>
+      <c r="V1" t="s">
+        <v>452</v>
+      </c>
+      <c r="W1" t="s">
+        <v>453</v>
+      </c>
+      <c r="X1" t="s">
+        <v>454</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>455</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>456</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>457</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>458</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>459</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>460</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -4868,24 +5055,23 @@
       <c r="Z2" s="3" t="s">
         <v>359</v>
       </c>
-      <c r="AA2" s="4"/>
+      <c r="AA2" s="2" t="s">
+        <v>360</v>
+      </c>
       <c r="AB2" s="2" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>363</v>
-      </c>
-      <c r="AF2" s="2" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="3" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -4964,24 +5150,23 @@
       <c r="Z3" s="3" t="s">
         <v>365</v>
       </c>
-      <c r="AA3" s="4"/>
+      <c r="AA3" s="2" t="s">
+        <v>224</v>
+      </c>
       <c r="AB3" s="2" t="s">
-        <v>224</v>
+        <v>366</v>
       </c>
       <c r="AC3" s="2" t="s">
-        <v>366</v>
+        <v>148</v>
       </c>
       <c r="AD3" s="2" t="s">
-        <v>148</v>
+        <v>367</v>
       </c>
       <c r="AE3" s="2" t="s">
-        <v>367</v>
-      </c>
-      <c r="AF3" s="2" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="4" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>18</v>
       </c>
@@ -5060,24 +5245,23 @@
       <c r="Z4" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="AA4" s="4"/>
+      <c r="AA4" s="2" t="s">
+        <v>369</v>
+      </c>
       <c r="AB4" s="2" t="s">
-        <v>369</v>
+        <v>187</v>
       </c>
       <c r="AC4" s="2" t="s">
-        <v>187</v>
+        <v>370</v>
       </c>
       <c r="AD4" s="2" t="s">
-        <v>370</v>
+        <v>210</v>
       </c>
       <c r="AE4" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="AF4" s="2" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="5" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>27</v>
       </c>
@@ -5156,24 +5340,23 @@
       <c r="Z5" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="AA5" s="4"/>
+      <c r="AA5" s="2" t="s">
+        <v>284</v>
+      </c>
       <c r="AB5" s="2" t="s">
-        <v>284</v>
+        <v>372</v>
       </c>
       <c r="AC5" s="2" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AD5" s="2" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AE5" s="2" t="s">
-        <v>374</v>
-      </c>
-      <c r="AF5" s="2" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="6" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>36</v>
       </c>
@@ -5252,24 +5435,23 @@
       <c r="Z6" s="3" t="s">
         <v>376</v>
       </c>
-      <c r="AA6" s="4"/>
+      <c r="AA6" s="2" t="s">
+        <v>377</v>
+      </c>
       <c r="AB6" s="2" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AC6" s="2" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AD6" s="2" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AE6" s="2" t="s">
-        <v>380</v>
-      </c>
-      <c r="AF6" s="2" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="7" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>45</v>
       </c>
@@ -5348,24 +5530,23 @@
       <c r="Z7" s="3" t="s">
         <v>382</v>
       </c>
-      <c r="AA7" s="4"/>
+      <c r="AA7" s="2" t="s">
+        <v>383</v>
+      </c>
       <c r="AB7" s="2" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AC7" s="2" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AD7" s="2" t="s">
-        <v>385</v>
+        <v>179</v>
       </c>
       <c r="AE7" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="AF7" s="2" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="8" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>54</v>
       </c>
@@ -5444,24 +5625,23 @@
       <c r="Z8" s="3" t="s">
         <v>387</v>
       </c>
-      <c r="AA8" s="4"/>
+      <c r="AA8" s="2" t="s">
+        <v>388</v>
+      </c>
       <c r="AB8" s="2" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AC8" s="2" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AD8" s="2" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AE8" s="2" t="s">
-        <v>391</v>
-      </c>
-      <c r="AF8" s="2" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="9" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>62</v>
       </c>
@@ -5540,24 +5720,23 @@
       <c r="Z9" s="3" t="s">
         <v>393</v>
       </c>
-      <c r="AA9" s="4"/>
+      <c r="AA9" s="2" t="s">
+        <v>64</v>
+      </c>
       <c r="AB9" s="2" t="s">
-        <v>64</v>
+        <v>394</v>
       </c>
       <c r="AC9" s="2" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AD9" s="2" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="AE9" s="2" t="s">
-        <v>396</v>
-      </c>
-      <c r="AF9" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>70</v>
       </c>
@@ -5636,24 +5815,23 @@
       <c r="Z10" s="3" t="s">
         <v>346</v>
       </c>
-      <c r="AA10" s="4"/>
+      <c r="AA10" s="2" t="s">
+        <v>397</v>
+      </c>
       <c r="AB10" s="2" t="s">
-        <v>397</v>
+        <v>373</v>
       </c>
       <c r="AC10" s="2" t="s">
-        <v>373</v>
+        <v>398</v>
       </c>
       <c r="AD10" s="2" t="s">
-        <v>398</v>
+        <v>135</v>
       </c>
       <c r="AE10" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="AF10" s="2" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="11" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>79</v>
       </c>
@@ -5732,24 +5910,23 @@
       <c r="Z11" s="3" t="s">
         <v>400</v>
       </c>
-      <c r="AA11" s="4"/>
+      <c r="AA11" s="2" t="s">
+        <v>401</v>
+      </c>
       <c r="AB11" s="2" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AC11" s="2" t="s">
-        <v>402</v>
+        <v>205</v>
       </c>
       <c r="AD11" s="2" t="s">
-        <v>205</v>
+        <v>403</v>
       </c>
       <c r="AE11" s="2" t="s">
-        <v>403</v>
-      </c>
-      <c r="AF11" s="2" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="12" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>88</v>
       </c>
@@ -5828,24 +6005,23 @@
       <c r="Z12" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="AA12" s="4"/>
+      <c r="AA12" s="2" t="s">
+        <v>405</v>
+      </c>
       <c r="AB12" s="2" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AC12" s="2" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AD12" s="2" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AE12" s="2" t="s">
-        <v>408</v>
-      </c>
-      <c r="AF12" s="2" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="13" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>96</v>
       </c>
@@ -5924,24 +6100,23 @@
       <c r="Z13" s="3" t="s">
         <v>410</v>
       </c>
-      <c r="AA13" s="4"/>
+      <c r="AA13" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="AB13" s="2" t="s">
-        <v>17</v>
+        <v>411</v>
       </c>
       <c r="AC13" s="2" t="s">
-        <v>411</v>
+        <v>354</v>
       </c>
       <c r="AD13" s="2" t="s">
-        <v>354</v>
+        <v>412</v>
       </c>
       <c r="AE13" s="2" t="s">
-        <v>412</v>
-      </c>
-      <c r="AF13" s="2" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="14" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>104</v>
       </c>
@@ -6020,24 +6195,23 @@
       <c r="Z14" s="3" t="s">
         <v>413</v>
       </c>
-      <c r="AA14" s="4"/>
+      <c r="AA14" s="2" t="s">
+        <v>414</v>
+      </c>
       <c r="AB14" s="2" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AC14" s="2" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AD14" s="2" t="s">
-        <v>416</v>
+        <v>243</v>
       </c>
       <c r="AE14" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="AF14" s="2" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="15" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>112</v>
       </c>
@@ -6116,24 +6290,23 @@
       <c r="Z15" s="3" t="s">
         <v>418</v>
       </c>
-      <c r="AA15" s="4"/>
+      <c r="AA15" s="2" t="s">
+        <v>251</v>
+      </c>
       <c r="AB15" s="2" t="s">
-        <v>251</v>
+        <v>419</v>
       </c>
       <c r="AC15" s="2" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="AD15" s="2" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="AE15" s="2" t="s">
-        <v>421</v>
-      </c>
-      <c r="AF15" s="2" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="16" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>120</v>
       </c>
@@ -6212,24 +6385,23 @@
       <c r="Z16" s="3" t="s">
         <v>423</v>
       </c>
-      <c r="AA16" s="4"/>
+      <c r="AA16" s="2" t="s">
+        <v>424</v>
+      </c>
       <c r="AB16" s="2" t="s">
-        <v>424</v>
+        <v>356</v>
       </c>
       <c r="AC16" s="2" t="s">
-        <v>356</v>
+        <v>425</v>
       </c>
       <c r="AD16" s="2" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="AE16" s="2" t="s">
-        <v>426</v>
-      </c>
-      <c r="AF16" s="2" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="17" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>129</v>
       </c>
@@ -6308,38 +6480,37 @@
       <c r="Z17" s="3" t="s">
         <v>428</v>
       </c>
-      <c r="AA17" s="4"/>
+      <c r="AA17" s="2" t="s">
+        <v>148</v>
+      </c>
       <c r="AB17" s="2" t="s">
-        <v>148</v>
+        <v>429</v>
       </c>
       <c r="AC17" s="2" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="AD17" s="2" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="AE17" s="2" t="s">
-        <v>431</v>
-      </c>
-      <c r="AF17" s="2" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="18" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="19" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="20" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="21" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="22" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="23" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="24" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="25" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="26" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="27" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="28" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="29" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="30" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="31" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="32" spans="1:32" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="18" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="19" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="20" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="21" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="22" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="23" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="24" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="25" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="26" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="27" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="28" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="29" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="30" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="31" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="32" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="33" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="34" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="35" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -6360,24 +6531,6 @@
     <row r="50" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="51" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <mergeCells count="16">
-    <mergeCell ref="Z6:AA6"/>
-    <mergeCell ref="Z7:AA7"/>
-    <mergeCell ref="Z8:AA8"/>
-    <mergeCell ref="Z9:AA9"/>
-    <mergeCell ref="Z10:AA10"/>
-    <mergeCell ref="Z2:AA2"/>
-    <mergeCell ref="Z3:AA3"/>
-    <mergeCell ref="Z4:AA4"/>
-    <mergeCell ref="Z5:AA5"/>
-    <mergeCell ref="Z16:AA16"/>
-    <mergeCell ref="Z17:AA17"/>
-    <mergeCell ref="Z11:AA11"/>
-    <mergeCell ref="Z12:AA12"/>
-    <mergeCell ref="Z13:AA13"/>
-    <mergeCell ref="Z14:AA14"/>
-    <mergeCell ref="Z15:AA15"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Colloscope1.xlsx
+++ b/Colloscope1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maelb\Desktop\APP COLLO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{153EE264-83DA-44E0-B93A-366E59EB9617}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0697EBF-704B-45E0-943D-1FDAA4E997D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28695" yWindow="0" windowWidth="12810" windowHeight="15135" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1" sheetId="1" r:id="rId1"/>
@@ -4358,94 +4358,94 @@
     </r>
   </si>
   <si>
-    <t>S1 (16/09)</t>
-  </si>
-  <si>
-    <t>S2 (23/09)</t>
-  </si>
-  <si>
-    <t>S3 (30/09)</t>
-  </si>
-  <si>
-    <t>S4 (07/10)</t>
-  </si>
-  <si>
-    <t>S5 (14/10)</t>
-  </si>
-  <si>
-    <t>S6 (04/11)</t>
-  </si>
-  <si>
-    <t>S7 (11/11)</t>
-  </si>
-  <si>
-    <t>S8 (18/11)</t>
-  </si>
-  <si>
-    <t>S9 (25/11)</t>
-  </si>
-  <si>
-    <t>S10 (02/12)</t>
-  </si>
-  <si>
-    <t>S11 (09/12)</t>
-  </si>
-  <si>
-    <t>S12 (16/12)</t>
-  </si>
-  <si>
-    <t>S13 (06/01)</t>
-  </si>
-  <si>
-    <t>S14 (13/01)</t>
-  </si>
-  <si>
-    <t>S15 (20/01)</t>
-  </si>
-  <si>
-    <t>S16 (27/01)</t>
-  </si>
-  <si>
-    <t>S17 (03/02)</t>
-  </si>
-  <si>
-    <t>S18 (24/02)</t>
-  </si>
-  <si>
-    <t>S19 (03/03)</t>
-  </si>
-  <si>
-    <t>S20 (10/03)</t>
-  </si>
-  <si>
-    <t>S21 (17/03)</t>
-  </si>
-  <si>
-    <t>S22 (24/03)</t>
-  </si>
-  <si>
-    <t>S23 (31/03)</t>
-  </si>
-  <si>
-    <t>S24 (21/04)</t>
-  </si>
-  <si>
-    <t>S25 (28/04)</t>
-  </si>
-  <si>
-    <t>S26 (05/05)</t>
-  </si>
-  <si>
-    <t>S27 (12/05)</t>
-  </si>
-  <si>
-    <t>S28 (19/05)</t>
-  </si>
-  <si>
-    <t>S29 (02/06)</t>
-  </si>
-  <si>
-    <t>S30 (09/06)</t>
+    <t>(23/09)</t>
+  </si>
+  <si>
+    <t>(16/09)</t>
+  </si>
+  <si>
+    <t>(30/09)</t>
+  </si>
+  <si>
+    <t>(07/10)</t>
+  </si>
+  <si>
+    <t>(14/10)</t>
+  </si>
+  <si>
+    <t>(04/11)</t>
+  </si>
+  <si>
+    <t>(11/11)</t>
+  </si>
+  <si>
+    <t>(18/11)</t>
+  </si>
+  <si>
+    <t>(25/11)</t>
+  </si>
+  <si>
+    <t>(02/12)</t>
+  </si>
+  <si>
+    <t>(09/12)</t>
+  </si>
+  <si>
+    <t>(16/12)</t>
+  </si>
+  <si>
+    <t>(06/01)</t>
+  </si>
+  <si>
+    <t>(13/01)</t>
+  </si>
+  <si>
+    <t>(20/01)</t>
+  </si>
+  <si>
+    <t>(27/01)</t>
+  </si>
+  <si>
+    <t>(03/02)</t>
+  </si>
+  <si>
+    <t>(24/02)</t>
+  </si>
+  <si>
+    <t>(03/03)</t>
+  </si>
+  <si>
+    <t>(10/03)</t>
+  </si>
+  <si>
+    <t>(17/03)</t>
+  </si>
+  <si>
+    <t>(24/03)</t>
+  </si>
+  <si>
+    <t>(31/03)</t>
+  </si>
+  <si>
+    <t>(21/04)</t>
+  </si>
+  <si>
+    <t>(28/04)</t>
+  </si>
+  <si>
+    <t>(05/05)</t>
+  </si>
+  <si>
+    <t>(12/05)</t>
+  </si>
+  <si>
+    <t>(19/05)</t>
+  </si>
+  <si>
+    <t>(02/06)</t>
+  </si>
+  <si>
+    <t>(09/06)</t>
   </si>
 </sst>
 </file>
@@ -4528,7 +4528,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -4540,6 +4540,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4847,8 +4850,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AE51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
-      <selection activeCell="AE8" sqref="AE8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AB22" sqref="AB22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4885,11 +4888,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" t="s">
+      <c r="B1" s="4" t="s">
+        <v>433</v>
+      </c>
+      <c r="C1" t="s">
         <v>432</v>
-      </c>
-      <c r="C1" t="s">
-        <v>433</v>
       </c>
       <c r="D1" t="s">
         <v>434</v>
